--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a7bea284aa22fa5/Git Repositories/Intervals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1325D10F-DD11-4157-95CB-554507FB2234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{1325D10F-DD11-4157-95CB-554507FB2234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A01F67-B490-4C96-98CB-08D412DFD461}"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="240" windowWidth="25560" windowHeight="20505" xr2:uid="{19C7DBE7-89F5-486D-A70F-2F22BEBAAEBD}"/>
+    <workbookView xWindow="51195" yWindow="240" windowWidth="25470" windowHeight="20505" xr2:uid="{19C7DBE7-89F5-486D-A70F-2F22BEBAAEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22405DE4-24B3-4022-9F98-0ED72B7C9CDF}">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,11 +429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45292</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,15 +449,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>47453</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,15 +473,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>47604</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>46266</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,15 +497,15 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>47300</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,15 +521,15 @@
         <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>47423</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>45292</v>
+        <v>46813</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,15 +545,15 @@
         <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>47453</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>45292</v>
+        <v>46661</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -550,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,15 +569,15 @@
         <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>47392</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,15 +593,15 @@
         <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>47362</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
-        <v>45292</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>46296</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,15 +617,15 @@
         <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>47362</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,15 +641,15 @@
         <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>47543</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>45292</v>
+        <v>46844</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,15 +665,15 @@
         <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>47515</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,15 +689,15 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>47453</v>
+        <v>46113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,15 +713,15 @@
         <v>12</v>
       </c>
       <c r="B36" s="1">
-        <v>47604</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>45292</v>
+        <v>46661</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,15 +737,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>47543</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
-        <v>45292</v>
+        <v>46905</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,15 +761,15 @@
         <v>14</v>
       </c>
       <c r="B42" s="1">
-        <v>47453</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,15 +785,15 @@
         <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>47453</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,15 +809,15 @@
         <v>16</v>
       </c>
       <c r="B48" s="1">
-        <v>47543</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1">
-        <v>45292</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,15 +833,15 @@
         <v>17</v>
       </c>
       <c r="B51" s="1">
-        <v>47574</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1">
-        <v>45292</v>
+        <v>46692</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="B53" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,15 +857,15 @@
         <v>18</v>
       </c>
       <c r="B54" s="1">
-        <v>47331</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="1">
-        <v>46478</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,15 +881,15 @@
         <v>19</v>
       </c>
       <c r="B57" s="1">
-        <v>47635</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,15 +905,15 @@
         <v>20</v>
       </c>
       <c r="B60" s="1">
-        <v>47453</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1">
-        <v>45292</v>
+        <v>46692</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="1">
-        <v>46478</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,15 +929,15 @@
         <v>21</v>
       </c>
       <c r="B63" s="1">
-        <v>47453</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +945,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,15 +953,15 @@
         <v>22</v>
       </c>
       <c r="B66" s="1">
-        <v>47515</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,15 +977,15 @@
         <v>23</v>
       </c>
       <c r="B69" s="1">
-        <v>47362</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1">
-        <v>45292</v>
+        <v>46631</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +993,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,15 +1001,15 @@
         <v>24</v>
       </c>
       <c r="B72" s="1">
-        <v>47423</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,15 +1025,15 @@
         <v>25</v>
       </c>
       <c r="B75" s="1">
-        <v>47484</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
-        <v>45292</v>
+        <v>46813</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="B77" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,15 +1049,15 @@
         <v>26</v>
       </c>
       <c r="B78" s="1">
-        <v>47543</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="1">
-        <v>45292</v>
+        <v>46692</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="B80" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,15 +1073,15 @@
         <v>27</v>
       </c>
       <c r="B81" s="1">
-        <v>47515</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" s="1">
-        <v>45292</v>
+        <v>46813</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="B83" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,15 +1097,15 @@
         <v>28</v>
       </c>
       <c r="B84" s="1">
-        <v>47515</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="B86" s="1">
-        <v>46419</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,15 +1121,15 @@
         <v>29</v>
       </c>
       <c r="B87" s="1">
-        <v>47453</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1">
-        <v>45292</v>
+        <v>46874</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="1">
-        <v>46327</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,15 +1145,15 @@
         <v>30</v>
       </c>
       <c r="B90" s="1">
-        <v>47392</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="1">
-        <v>46296</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,15 +1169,15 @@
         <v>31</v>
       </c>
       <c r="B93" s="1">
-        <v>47239</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B94" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1185,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,15 +1193,15 @@
         <v>32</v>
       </c>
       <c r="B96" s="1">
-        <v>47362</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B97" s="1">
-        <v>45292</v>
+        <v>46844</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="1">
-        <v>46388</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,15 +1217,15 @@
         <v>33</v>
       </c>
       <c r="B99" s="1">
-        <v>47484</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="1">
-        <v>45292</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,15 +1241,15 @@
         <v>34</v>
       </c>
       <c r="B102" s="1">
-        <v>47484</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1">
-        <v>45292</v>
+        <v>46692</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="B104" s="1">
-        <v>46447</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,15 +1265,15 @@
         <v>35</v>
       </c>
       <c r="B105" s="1">
-        <v>47543</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106" s="1">
-        <v>45292</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="B107" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,15 +1289,15 @@
         <v>36</v>
       </c>
       <c r="B108" s="1">
-        <v>47423</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1">
-        <v>45292</v>
+        <v>46661</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="B110" s="1">
-        <v>46296</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,15 +1313,15 @@
         <v>37</v>
       </c>
       <c r="B111" s="1">
-        <v>47362</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" s="1">
-        <v>45292</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1329,7 @@
         <v>38</v>
       </c>
       <c r="B113" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,15 +1337,15 @@
         <v>38</v>
       </c>
       <c r="B114" s="1">
-        <v>47362</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1353,7 @@
         <v>39</v>
       </c>
       <c r="B116" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,15 +1361,15 @@
         <v>39</v>
       </c>
       <c r="B117" s="1">
-        <v>47515</v>
+        <v>46023</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118" s="1">
-        <v>45292</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1377,7 @@
         <v>40</v>
       </c>
       <c r="B119" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,15 +1385,15 @@
         <v>40</v>
       </c>
       <c r="B120" s="1">
-        <v>47574</v>
+        <v>46143</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B121" s="1">
-        <v>45292</v>
+        <v>46966</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="B122" s="1">
-        <v>46357</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,15 +1409,15 @@
         <v>41</v>
       </c>
       <c r="B123" s="1">
-        <v>47453</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124" s="1">
-        <v>45292</v>
+        <v>46722</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1425,7 @@
         <v>42</v>
       </c>
       <c r="B125" s="1">
-        <v>46266</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1433,15 @@
         <v>42</v>
       </c>
       <c r="B126" s="1">
-        <v>47331</v>
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46661</v>
       </c>
     </row>
   </sheetData>
